--- a/data/Fall2018/db1-7_all-timepoints-runs/db5/15-genes_28-edges_db5_Sigmoid_estimation_all-timepoints.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db5/15-genes_28-edges_db5_Sigmoid_estimation_all-timepoints.xlsx
@@ -431,12 +431,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -798,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -806,6 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="348">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2466,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2476,7 +2483,7 @@
     <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2593,8 +2600,14 @@
       <c r="D14" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2617,7 +2630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2659,6 +2672,42 @@
       </c>
       <c r="N16" s="1">
         <v>60</v>
+      </c>
+      <c r="O16" s="1">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>75</v>
+      </c>
+      <c r="R16" s="1">
+        <v>80</v>
+      </c>
+      <c r="S16" s="1">
+        <v>85</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90</v>
+      </c>
+      <c r="U16" s="1">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1">
+        <v>100</v>
+      </c>
+      <c r="W16" s="1">
+        <v>105</v>
+      </c>
+      <c r="X16" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>115</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3129,7 @@
       <c r="F2" s="2">
         <v>0.5827</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="2">
         <v>-0.3947</v>
       </c>
@@ -3105,7 +3154,7 @@
       <c r="O2" s="2">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="2">
         <v>0.26819999999999999</v>
       </c>
@@ -4015,7 +4064,7 @@
       <c r="W14" s="2">
         <v>0.65090000000000003</v>
       </c>
-      <c r="X14" s="2"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -4131,7 +4180,7 @@
       <c r="M16" s="2">
         <v>1.3863000000000001</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="2">
         <v>0.45350000000000001</v>
       </c>
@@ -4277,7 +4326,7 @@
       <c r="H2" s="2">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="2">
         <v>0.56820000000000004</v>
       </c>
@@ -4387,7 +4436,7 @@
       <c r="B4" s="2">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2">
         <v>-0.43219999999999997</v>
       </c>
@@ -4406,7 +4455,7 @@
       <c r="I4" s="2">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="2">
         <v>-0.3216</v>
       </c>
@@ -4431,7 +4480,7 @@
       <c r="R4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="2">
         <v>2.1099000000000001</v>
       </c>
@@ -4703,7 +4752,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
@@ -4899,7 +4948,7 @@
       <c r="B12" s="2">
         <v>-0.4763</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2">
         <v>-0.33360000000000001</v>
       </c>
@@ -5208,7 +5257,7 @@
       <c r="S16" s="2">
         <v>0.1502</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="2">
         <v>-4.1300000000000003E-2</v>
       </c>
@@ -5513,7 +5562,7 @@
       <c r="E5" s="2">
         <v>-6.1600000000000002E-2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>-0.19980000000000001</v>
       </c>
@@ -5795,7 +5844,7 @@
       <c r="M9" s="2">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="2">
         <v>0.4501</v>
       </c>
@@ -5896,7 +5945,7 @@
       <c r="D11" s="2">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>1.1875</v>
       </c>
@@ -6039,7 +6088,7 @@
       <c r="I13" s="2">
         <v>-0.4289</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2">
         <v>-0.99909999999999999</v>
       </c>
@@ -6143,7 +6192,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2">
         <v>0.56440000000000001</v>
       </c>
@@ -6212,7 +6261,7 @@
       <c r="C16" s="2">
         <v>-0.22620000000000001</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2">
         <v>0.40500000000000003</v>
       </c>
@@ -6222,7 +6271,7 @@
       <c r="G16" s="2">
         <v>1.7576000000000001</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="2">
         <v>1.3798999999999999</v>
       </c>
@@ -6235,11 +6284,11 @@
       <c r="L16" s="2">
         <v>-1.0851999999999999</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="2">
         <v>-0.86339999999999995</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="2">
         <v>0.2954</v>
       </c>
@@ -6886,7 +6935,7 @@
       <c r="D11" s="2">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>0.40579999999999999</v>
       </c>
@@ -6896,8 +6945,8 @@
       <c r="H11" s="2">
         <v>0.4143</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2">
         <v>-0.1119</v>
       </c>
@@ -6907,9 +6956,9 @@
       <c r="M11" s="2">
         <v>0.16170000000000001</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="2">
         <v>-0.22140000000000001</v>
       </c>
@@ -6945,7 +6994,7 @@
       <c r="H12" s="2">
         <v>-0.1171</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="2">
         <v>0.3775</v>
       </c>
@@ -6981,7 +7030,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="2">
         <v>0.14910000000000001</v>
       </c>
@@ -7159,7 +7208,7 @@
       <c r="B16" s="2">
         <v>-1.903</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2">
         <v>1.5545</v>
       </c>
@@ -7190,7 +7239,7 @@
       <c r="M16" s="2">
         <v>-0.5958</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="2">
         <v>-1.0683</v>
       </c>
@@ -7891,8 +7940,8 @@
       <c r="C11" s="2">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>0.29699999999999999</v>
       </c>
@@ -7902,29 +7951,29 @@
       <c r="H11" s="2">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="2">
         <v>1.7097</v>
       </c>
       <c r="K11" s="2">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="2">
         <v>-1.1805000000000001</v>
       </c>
       <c r="O11" s="2">
         <v>-0.22239999999999999</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="2">
         <v>-0.20169999999999999</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8474,7 +8523,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2">
         <v>2.4161999999999999</v>
       </c>
@@ -9252,7 +9301,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2">
         <v>0.12870000000000001</v>
       </c>
@@ -9274,7 +9323,7 @@
       <c r="I16" s="2">
         <v>-0.23730000000000001</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2">
         <v>0.69140000000000001</v>
       </c>
@@ -9296,7 +9345,7 @@
       <c r="Q16" s="2">
         <v>0.25569999999999998</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="2">
         <v>0.40379999999999999</v>
       </c>
